--- a/leet code/combined.xlsx
+++ b/leet code/combined.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\basics\leet code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425A1144-8CE1-46B5-83BA-1659F85A1547}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44368F35-F08C-4143-AF1C-D15E304AB493}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{EE9A51F5-750A-4539-9563-098A3BF6C272}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE9A51F5-750A-4539-9563-098A3BF6C272}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="All" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="All" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="720">
   <si>
     <t>Title</t>
   </si>
@@ -1812,13 +1813,394 @@
   </si>
   <si>
     <t>Construct Quad Tree</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Game of Life</t>
+  </si>
+  <si>
+    <t>Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>Alien Dictionary</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>Decode Ways</t>
+  </si>
+  <si>
+    <t>First Missing Positive</t>
+  </si>
+  <si>
+    <t>Coin Change</t>
+  </si>
+  <si>
+    <t>Max Points on a Line</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>Move Zeroes</t>
+  </si>
+  <si>
+    <t>Pow(x, n)</t>
+  </si>
+  <si>
+    <t>Longest Substring with At Most K Distinct Characters</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Design Tic-Tac-Toe</t>
+  </si>
+  <si>
+    <t>Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>Count of Smaller Numbers After Self</t>
+  </si>
+  <si>
+    <t>Sort List</t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t>Divide Two Integers</t>
+  </si>
+  <si>
+    <t>Count Primes</t>
+  </si>
+  <si>
+    <t>Symmetric Tree</t>
+  </si>
+  <si>
+    <t>Sqrt(x)</t>
+  </si>
+  <si>
+    <t>Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t>Word Break II</t>
+  </si>
+  <si>
+    <t>Course Schedule II</t>
+  </si>
+  <si>
+    <t>Unique Paths</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t>Count and Say</t>
+  </si>
+  <si>
+    <t>Implement strStr()</t>
+  </si>
+  <si>
+    <t>Jump Game</t>
+  </si>
+  <si>
+    <t>Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>Surrounded Regions</t>
+  </si>
+  <si>
+    <t>Flatten 2D Vector</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t>Shuffle an Array</t>
+  </si>
+  <si>
+    <t>Increasing Triplet Subsequence</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock II</t>
+  </si>
+  <si>
+    <t>Rotate Array</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>Gas Station</t>
+  </si>
+  <si>
+    <t>Plus One</t>
+  </si>
+  <si>
+    <t>Longest Substring with At Least K Repeating Characters</t>
+  </si>
+  <si>
+    <t>Sum of Two Integers</t>
+  </si>
+  <si>
+    <t>Largest Number</t>
+  </si>
+  <si>
+    <t>Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Missing Ranges</t>
+  </si>
+  <si>
+    <t>Odd Even Linked List</t>
+  </si>
+  <si>
+    <t>Wiggle Sort II</t>
+  </si>
+  <si>
+    <t>Inorder Successor in BST</t>
+  </si>
+  <si>
+    <t>Delete Node in a Linked List</t>
+  </si>
+  <si>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>Range Sum Query 2D - Mutable</t>
+  </si>
+  <si>
+    <t>Reverse Bits</t>
+  </si>
+  <si>
+    <t>4Sum II</t>
+  </si>
+  <si>
+    <t>Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>Factorial Trailing Zeroes</t>
+  </si>
+  <si>
+    <t>Power of Th+A186:A330ree</t>
+  </si>
+  <si>
+    <t>Decode String</t>
+  </si>
+  <si>
+    <t>Split Array Largest Sum</t>
+  </si>
+  <si>
+    <t>Time Based Key-Value Store</t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>Read N Characters Given Read4 II - Call multiple times</t>
+  </si>
+  <si>
+    <t>Guess the Word</t>
+  </si>
+  <si>
+    <t>Robot Room Cleaner</t>
+  </si>
+  <si>
+    <t>Odd Even Jump</t>
+  </si>
+  <si>
+    <t>Count Complete Tree Nodes</t>
+  </si>
+  <si>
+    <t>Cracking the Safe</t>
+  </si>
+  <si>
+    <t>Campus Bikes</t>
+  </si>
+  <si>
+    <t>Fruit Into Baskets</t>
+  </si>
+  <si>
+    <t>Most Stones Removed with Same Row or Column</t>
+  </si>
+  <si>
+    <t>Strobogrammatic Number II</t>
+  </si>
+  <si>
+    <t>Different Ways to Add Parentheses</t>
+  </si>
+  <si>
+    <t>Network Delay Time</t>
+  </si>
+  <si>
+    <t>Backspace String Compare</t>
+  </si>
+  <si>
+    <t>License Key Formatting</t>
+  </si>
+  <si>
+    <t>Capacity To Ship Packages Within D Days</t>
+  </si>
+  <si>
+    <t>Brace Expansion II</t>
+  </si>
+  <si>
+    <t>Minimum Cost to Hire K Workers</t>
+  </si>
+  <si>
+    <t>Strobogrammatic Number</t>
+  </si>
+  <si>
+    <t>Campus Bikes II</t>
+  </si>
+  <si>
+    <t>Minimum Area Rectangle</t>
+  </si>
+  <si>
+    <t>My Calendar II</t>
+  </si>
+  <si>
+    <t>Bulls and Cows</t>
+  </si>
+  <si>
+    <t>Find And Replace in String</t>
+  </si>
+  <si>
+    <t>Minimum Domino Rotations For Equal Row</t>
+  </si>
+  <si>
+    <t>Shortest Way to Form String</t>
+  </si>
+  <si>
+    <t>Brace Expansion</t>
+  </si>
+  <si>
+    <t>Longest Word in Dictionary through Deleting</t>
+  </si>
+  <si>
+    <t>Expressive Words</t>
+  </si>
+  <si>
+    <t>Reorder Log Files</t>
+  </si>
+  <si>
+    <t>Jump Game II</t>
+  </si>
+  <si>
+    <t>Basic Calculator III</t>
+  </si>
+  <si>
+    <t>Most Common Word</t>
+  </si>
+  <si>
+    <t>Binary Tree Vertical Order Traversal</t>
+  </si>
+  <si>
+    <t>Partition Labels</t>
+  </si>
+  <si>
+    <t>Prison Cells After N Days</t>
+  </si>
+  <si>
+    <t>Compare Version Numbers</t>
+  </si>
+  <si>
+    <t>Snakes and Ladders</t>
+  </si>
+  <si>
+    <t>All Nodes Distance K in Binary Tree</t>
+  </si>
+  <si>
+    <t>Concatenated Words</t>
+  </si>
+  <si>
+    <t>Boundary of Binary Tree</t>
+  </si>
+  <si>
+    <t>Flood Fill</t>
+  </si>
+  <si>
+    <t>Design In-Memory File System</t>
+  </si>
+  <si>
+    <t>Minimum Cost to Merge Stones</t>
+  </si>
+  <si>
+    <t>The Maze II</t>
+  </si>
+  <si>
+    <t>Cut Off Trees for Golf Event</t>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+  </si>
+  <si>
+    <t>Max Stack</t>
+  </si>
+  <si>
+    <t>Nested List Weight Sum II</t>
+  </si>
+  <si>
+    <t>Valid Number</t>
+  </si>
+  <si>
+    <t>All O`one Data Structure</t>
+  </si>
+  <si>
+    <t>Shortest Word Distance II</t>
+  </si>
+  <si>
+    <t>Shortest Word Distance</t>
+  </si>
+  <si>
+    <t>Find Leaves of Binary Tree</t>
+  </si>
+  <si>
+    <t>Valid Triangle Number</t>
+  </si>
+  <si>
+    <t>Partition to K Equal Sum Subsets</t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value II</t>
+  </si>
+  <si>
+    <t>Can Place Flowers</t>
+  </si>
+  <si>
+    <t>Nested List Weight Sum</t>
+  </si>
+  <si>
+    <t>Paint House</t>
+  </si>
+  <si>
+    <t>Two Sum III - Data structure design</t>
+  </si>
+  <si>
+    <t>Binary Tree Upside Down</t>
+  </si>
+  <si>
+    <t>Second Minimum Node In a Binary Tree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1853,6 +2235,14 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1903,7 +2293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1912,9 +2302,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -1934,8 +2321,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2250,10 +2644,1874 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C73A8C-DFDF-4011-9D60-B786552372A5}">
+  <dimension ref="A1:C408"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.28515625" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="8" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="8" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="8" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="8" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="8" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="8" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="8" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="8" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="8" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="8" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="8" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C177" s="9"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="8" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="8" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="8" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="8" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="8" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="10" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="10" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="10" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="10" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="10" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="10" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="10" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="10" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="10" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="10" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="10" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="10" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="10" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="10" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="10" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="10" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="10" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="10" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="10" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="10" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="10" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="10" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="10" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="10" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="10" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="10" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="10" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="10" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="10" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="10" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="10" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="10" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="10" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="10" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="10" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="14" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="10" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="10" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="10" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="10" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="10" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="10" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="10" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="10" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="10" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="10" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="10" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="10" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="10" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="11" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="10" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="10" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="10" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="10" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="10" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="10" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="10" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="10" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="10" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="10" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="10" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="10" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="10" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="10" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="10" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="10" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="10" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="10" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="10" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="10" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="10" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="10" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="10" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="10" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="10" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="10" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="10" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="10" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="10" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="10" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="10" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="10" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="10" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="10" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="10" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="10" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="10" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="10" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="10" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="10" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="10" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="10" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="10" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="10" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="10" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="11" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="10" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="10" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="10" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="10" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="10" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="10" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="10" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="10" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="10" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="10" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="10" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="10" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="10" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="10" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="10" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="10" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="15" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394"/>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAF2247-F8A4-4D70-8DC1-81C840654002}">
   <dimension ref="A1:D333"/>
   <sheetViews>
-    <sheetView topLeftCell="A322" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A242" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A332" sqref="A1:A333"/>
     </sheetView>
   </sheetViews>
@@ -2266,7 +4524,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2274,7 +4532,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2282,7 +4540,7 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2290,7 +4548,7 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2298,7 +4556,7 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2306,7 +4564,7 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2314,7 +4572,7 @@
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2322,7 +4580,7 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2330,7 +4588,7 @@
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2338,7 +4596,7 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2346,7 +4604,7 @@
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2354,7 +4612,7 @@
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2362,7 +4620,7 @@
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2370,7 +4628,7 @@
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2378,7 +4636,7 @@
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2386,7 +4644,7 @@
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2394,7 +4652,7 @@
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2402,7 +4660,7 @@
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2410,7 +4668,7 @@
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2418,7 +4676,7 @@
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2426,7 +4684,7 @@
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2434,7 +4692,7 @@
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2442,7 +4700,7 @@
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2450,7 +4708,7 @@
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2458,7 +4716,7 @@
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2466,7 +4724,7 @@
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2474,7 +4732,7 @@
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2482,7 +4740,7 @@
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2490,7 +4748,7 @@
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2498,7 +4756,7 @@
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2506,7 +4764,7 @@
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2514,7 +4772,7 @@
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2522,7 +4780,7 @@
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2530,7 +4788,7 @@
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2538,7 +4796,7 @@
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2546,7 +4804,7 @@
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2554,7 +4812,7 @@
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2562,7 +4820,7 @@
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2570,7 +4828,7 @@
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2578,7 +4836,7 @@
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2586,7 +4844,7 @@
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2594,7 +4852,7 @@
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2602,7 +4860,7 @@
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -2610,7 +4868,7 @@
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2618,7 +4876,7 @@
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -2626,7 +4884,7 @@
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2634,7 +4892,7 @@
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2642,7 +4900,7 @@
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2650,7 +4908,7 @@
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2658,7 +4916,7 @@
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2666,7 +4924,7 @@
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="7" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2674,7 +4932,7 @@
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2682,7 +4940,7 @@
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="6" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2690,7 +4948,7 @@
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2698,7 +4956,7 @@
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="6" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2706,7 +4964,7 @@
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2714,7 +4972,7 @@
       <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="7" t="s">
         <v>241</v>
       </c>
     </row>
@@ -2722,7 +4980,7 @@
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>242</v>
       </c>
     </row>
@@ -2730,7 +4988,7 @@
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="6" t="s">
         <v>243</v>
       </c>
     </row>
@@ -2738,7 +4996,7 @@
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="6" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2746,7 +5004,7 @@
       <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>245</v>
       </c>
     </row>
@@ -2754,7 +5012,7 @@
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="7" t="s">
         <v>246</v>
       </c>
     </row>
@@ -2762,7 +5020,7 @@
       <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="6" t="s">
         <v>247</v>
       </c>
     </row>
@@ -2770,7 +5028,7 @@
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="6" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2778,7 +5036,7 @@
       <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="6" t="s">
         <v>249</v>
       </c>
     </row>
@@ -2786,7 +5044,7 @@
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="6" t="s">
         <v>250</v>
       </c>
     </row>
@@ -2794,7 +5052,7 @@
       <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="6" t="s">
         <v>251</v>
       </c>
     </row>
@@ -2802,7 +5060,7 @@
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="6" t="s">
         <v>252</v>
       </c>
     </row>
@@ -2810,7 +5068,7 @@
       <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="6" t="s">
         <v>253</v>
       </c>
     </row>
@@ -2818,7 +5076,7 @@
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="7" t="s">
         <v>294</v>
       </c>
     </row>
@@ -2826,7 +5084,7 @@
       <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="6" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2834,7 +5092,7 @@
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="6" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2842,7 +5100,7 @@
       <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="6" t="s">
         <v>295</v>
       </c>
     </row>
@@ -2850,7 +5108,7 @@
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="6" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2858,7 +5116,7 @@
       <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2866,7 +5124,7 @@
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="6" t="s">
         <v>296</v>
       </c>
     </row>
@@ -2874,7 +5132,7 @@
       <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2882,7 +5140,7 @@
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2890,7 +5148,7 @@
       <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="6" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2898,7 +5156,7 @@
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="6" t="s">
         <v>297</v>
       </c>
     </row>
@@ -2906,7 +5164,7 @@
       <c r="A81" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="6" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2914,7 +5172,7 @@
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="6" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2922,7 +5180,7 @@
       <c r="A83" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="6" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2930,7 +5188,7 @@
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="6" t="s">
         <v>298</v>
       </c>
     </row>
@@ -2938,7 +5196,7 @@
       <c r="A85" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="6" t="s">
         <v>299</v>
       </c>
     </row>
@@ -2946,7 +5204,7 @@
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="6" t="s">
         <v>300</v>
       </c>
     </row>
@@ -2954,7 +5212,7 @@
       <c r="A87" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="7" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2962,7 +5220,7 @@
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="6" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2970,7 +5228,7 @@
       <c r="A89" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="6" t="s">
         <v>301</v>
       </c>
     </row>
@@ -2978,7 +5236,7 @@
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="6" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2986,7 +5244,7 @@
       <c r="A91" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="6" t="s">
         <v>302</v>
       </c>
     </row>
@@ -2994,7 +5252,7 @@
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="6" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3002,7 +5260,7 @@
       <c r="A93" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3010,7 +5268,7 @@
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="7" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3018,7 +5276,7 @@
       <c r="A95" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="6" t="s">
         <v>304</v>
       </c>
     </row>
@@ -3026,7 +5284,7 @@
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="6" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3034,7 +5292,7 @@
       <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="6" t="s">
         <v>306</v>
       </c>
     </row>
@@ -3042,7 +5300,7 @@
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="6" t="s">
         <v>307</v>
       </c>
     </row>
@@ -3050,7 +5308,7 @@
       <c r="A99" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="7" t="s">
         <v>308</v>
       </c>
     </row>
@@ -3058,7 +5316,7 @@
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="6" t="s">
         <v>309</v>
       </c>
     </row>
@@ -3066,7 +5324,7 @@
       <c r="A101" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="6" t="s">
         <v>310</v>
       </c>
     </row>
@@ -3074,7 +5332,7 @@
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="6" t="s">
         <v>311</v>
       </c>
     </row>
@@ -3082,7 +5340,7 @@
       <c r="A103" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="6" t="s">
         <v>312</v>
       </c>
     </row>
@@ -3090,7 +5348,7 @@
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="7" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3098,7 +5356,7 @@
       <c r="A105" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="6" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3106,7 +5364,7 @@
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="6" t="s">
         <v>313</v>
       </c>
     </row>
@@ -3114,7 +5372,7 @@
       <c r="A107" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3122,7 +5380,7 @@
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="7" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3130,7 +5388,7 @@
       <c r="A109" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="6" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3138,7 +5396,7 @@
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="6" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3146,7 +5404,7 @@
       <c r="A111" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" s="6" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3154,7 +5412,7 @@
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="6" t="s">
         <v>314</v>
       </c>
     </row>
@@ -3162,7 +5420,7 @@
       <c r="A113" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="6" t="s">
         <v>315</v>
       </c>
     </row>
@@ -3170,7 +5428,7 @@
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3178,7 +5436,7 @@
       <c r="A115" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="6" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3186,7 +5444,7 @@
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="6" t="s">
         <v>317</v>
       </c>
     </row>
@@ -3194,7 +5452,7 @@
       <c r="A117" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="6" t="s">
         <v>318</v>
       </c>
     </row>
@@ -3202,7 +5460,7 @@
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="7" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3210,7 +5468,7 @@
       <c r="A119" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="6" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3218,7 +5476,7 @@
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="6" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3226,7 +5484,7 @@
       <c r="A121" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="D121" s="7" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3234,7 +5492,7 @@
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="6" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3242,7 +5500,7 @@
       <c r="A123" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="6" t="s">
         <v>319</v>
       </c>
     </row>
@@ -3250,7 +5508,7 @@
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="6" t="s">
         <v>320</v>
       </c>
     </row>
@@ -3258,7 +5516,7 @@
       <c r="A125" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="6" t="s">
         <v>321</v>
       </c>
     </row>
@@ -3266,7 +5524,7 @@
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="6" t="s">
         <v>322</v>
       </c>
     </row>
@@ -3274,7 +5532,7 @@
       <c r="A127" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D127" s="6" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3282,7 +5540,7 @@
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="6" t="s">
         <v>323</v>
       </c>
     </row>
@@ -3290,7 +5548,7 @@
       <c r="A129" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="7" t="s">
         <v>324</v>
       </c>
     </row>
@@ -3298,7 +5556,7 @@
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D130" s="6" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3306,7 +5564,7 @@
       <c r="A131" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="6" t="s">
         <v>325</v>
       </c>
     </row>
@@ -3314,7 +5572,7 @@
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="6" t="s">
         <v>326</v>
       </c>
     </row>
@@ -3322,7 +5580,7 @@
       <c r="A133" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D133" s="6" t="s">
         <v>327</v>
       </c>
     </row>
@@ -3330,7 +5588,7 @@
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D134" s="7" t="s">
         <v>328</v>
       </c>
     </row>
@@ -3338,7 +5596,7 @@
       <c r="A135" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D135" s="6" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3346,7 +5604,7 @@
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" s="6" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3354,7 +5612,7 @@
       <c r="A137" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D137" s="6" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3362,7 +5620,7 @@
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D138" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3370,7 +5628,7 @@
       <c r="A139" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D139" s="6" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3378,7 +5636,7 @@
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="D140" s="6" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3386,7 +5644,7 @@
       <c r="A141" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="D141" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3394,7 +5652,7 @@
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D142" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3402,7 +5660,7 @@
       <c r="A143" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D143" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -3410,7 +5668,7 @@
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="D144" s="6" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3418,21 +5676,21 @@
       <c r="A145" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D145" s="7" t="s">
+      <c r="D145" s="6" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D146" s="7" t="s">
+      <c r="D146" s="6" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="4"/>
-      <c r="D147" s="7" t="s">
+      <c r="A147" s="12"/>
+      <c r="D147" s="6" t="s">
         <v>334</v>
       </c>
     </row>
@@ -3440,15 +5698,15 @@
       <c r="A148" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D148" s="8" t="s">
+      <c r="D148" s="7" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D149" s="7" t="s">
+      <c r="D149" s="6" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3456,15 +5714,15 @@
       <c r="A150" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D150" s="6" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D151" s="8" t="s">
+      <c r="D151" s="7" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3472,15 +5730,15 @@
       <c r="A152" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D152" s="7" t="s">
+      <c r="D152" s="6" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="D153" s="6" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3488,15 +5746,15 @@
       <c r="A154" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="D154" s="6" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D155" s="6" t="s">
         <v>338</v>
       </c>
     </row>
@@ -3504,15 +5762,15 @@
       <c r="A156" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D156" s="8" t="s">
+      <c r="D156" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D157" s="6" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3520,15 +5778,15 @@
       <c r="A158" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D158" s="6" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D159" s="7" t="s">
+      <c r="D159" s="6" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3536,15 +5794,15 @@
       <c r="A160" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D160" s="6" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
+      <c r="A161" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D161" s="8" t="s">
+      <c r="D161" s="7" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3552,15 +5810,15 @@
       <c r="A162" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D162" s="7" t="s">
+      <c r="D162" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D163" s="7" t="s">
+      <c r="D163" s="6" t="s">
         <v>339</v>
       </c>
     </row>
@@ -3568,15 +5826,15 @@
       <c r="A164" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D164" s="7" t="s">
+      <c r="D164" s="6" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="5" t="s">
+      <c r="A165" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D165" s="7" t="s">
+      <c r="D165" s="6" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3584,15 +5842,15 @@
       <c r="A166" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D166" s="7" t="s">
+      <c r="D166" s="6" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
+      <c r="A167" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D167" s="7" t="s">
+      <c r="D167" s="6" t="s">
         <v>343</v>
       </c>
     </row>
@@ -3600,15 +5858,15 @@
       <c r="A168" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D168" s="7" t="s">
+      <c r="D168" s="6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A169" s="5" t="s">
+      <c r="A169" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D169" s="8" t="s">
+      <c r="D169" s="7" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3616,15 +5874,15 @@
       <c r="A170" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D170" s="7" t="s">
+      <c r="D170" s="6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="5" t="s">
+      <c r="A171" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D171" s="7" t="s">
+      <c r="D171" s="6" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3632,15 +5890,15 @@
       <c r="A172" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D172" s="7" t="s">
+      <c r="D172" s="6" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
+      <c r="A173" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D173" s="7" t="s">
+      <c r="D173" s="6" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3648,15 +5906,15 @@
       <c r="A174" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D174" s="7" t="s">
+      <c r="D174" s="6" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="5" t="s">
+      <c r="A175" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D175" s="7" t="s">
+      <c r="D175" s="6" t="s">
         <v>344</v>
       </c>
     </row>
@@ -3664,15 +5922,15 @@
       <c r="A176" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D176" s="7" t="s">
+      <c r="D176" s="6" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A177" s="5" t="s">
+      <c r="A177" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D177" s="8" t="s">
+      <c r="D177" s="7" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3680,15 +5938,15 @@
       <c r="A178" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D178" s="7" t="s">
+      <c r="D178" s="6" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
+      <c r="A179" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D179" s="7" t="s">
+      <c r="D179" s="6" t="s">
         <v>346</v>
       </c>
     </row>
@@ -3696,15 +5954,15 @@
       <c r="A180" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D180" s="7" t="s">
+      <c r="D180" s="6" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A181" s="5" t="s">
+      <c r="A181" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D181" s="8" t="s">
+      <c r="D181" s="7" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3712,15 +5970,15 @@
       <c r="A182" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D182" s="7" t="s">
+      <c r="D182" s="6" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
+      <c r="A183" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D183" s="7" t="s">
+      <c r="D183" s="6" t="s">
         <v>348</v>
       </c>
     </row>
@@ -3728,15 +5986,15 @@
       <c r="A184" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D184" s="8" t="s">
+      <c r="D184" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="5" t="s">
+      <c r="A185" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D185" s="7" t="s">
+      <c r="D185" s="6" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3744,15 +6002,15 @@
       <c r="A186" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D186" s="7" t="s">
+      <c r="D186" s="6" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="5" t="s">
+      <c r="A187" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D187" s="7" t="s">
+      <c r="D187" s="6" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3760,15 +6018,15 @@
       <c r="A188" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D188" s="7" t="s">
+      <c r="D188" s="6" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="5" t="s">
+      <c r="A189" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D189" s="7" t="s">
+      <c r="D189" s="6" t="s">
         <v>350</v>
       </c>
     </row>
@@ -3776,15 +6034,15 @@
       <c r="A190" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D190" s="7" t="s">
+      <c r="D190" s="6" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="5" t="s">
+      <c r="A191" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D191" s="7" t="s">
+      <c r="D191" s="6" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3792,15 +6050,15 @@
       <c r="A192" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D192" s="7" t="s">
+      <c r="D192" s="6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
+      <c r="A193" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D193" s="7" t="s">
+      <c r="D193" s="6" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3808,15 +6066,15 @@
       <c r="A194" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D194" s="7" t="s">
+      <c r="D194" s="6" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="5" t="s">
+      <c r="A195" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D195" s="7" t="s">
+      <c r="D195" s="6" t="s">
         <v>352</v>
       </c>
     </row>
@@ -3824,15 +6082,15 @@
       <c r="A196" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D196" s="7" t="s">
+      <c r="D196" s="6" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="6" t="s">
+      <c r="A197" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D197" s="7" t="s">
+      <c r="D197" s="6" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3840,7 +6098,7 @@
       <c r="A198" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D198" s="8" t="s">
+      <c r="D198" s="7" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3848,7 +6106,7 @@
       <c r="A199" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D199" s="7" t="s">
+      <c r="D199" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3856,7 +6114,7 @@
       <c r="A200" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D200" s="7" t="s">
+      <c r="D200" s="6" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3864,7 +6122,7 @@
       <c r="A201" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D201" s="7" t="s">
+      <c r="D201" s="6" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3872,7 +6130,7 @@
       <c r="A202" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D202" s="7" t="s">
+      <c r="D202" s="6" t="s">
         <v>354</v>
       </c>
     </row>
@@ -3880,7 +6138,7 @@
       <c r="A203" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D203" s="7" t="s">
+      <c r="D203" s="6" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3888,7 +6146,7 @@
       <c r="A204" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D204" s="7" t="s">
+      <c r="D204" s="6" t="s">
         <v>309</v>
       </c>
     </row>
@@ -3896,7 +6154,7 @@
       <c r="A205" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D205" s="7" t="s">
+      <c r="D205" s="6" t="s">
         <v>355</v>
       </c>
     </row>
@@ -3904,7 +6162,7 @@
       <c r="A206" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D206" s="7" t="s">
+      <c r="D206" s="6" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3912,7 +6170,7 @@
       <c r="A207" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D207" s="8" t="s">
+      <c r="D207" s="7" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3920,7 +6178,7 @@
       <c r="A208" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D208" s="7" t="s">
+      <c r="D208" s="6" t="s">
         <v>304</v>
       </c>
     </row>
@@ -3928,7 +6186,7 @@
       <c r="A209" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D209" s="7" t="s">
+      <c r="D209" s="6" t="s">
         <v>306</v>
       </c>
     </row>
@@ -3936,7 +6194,7 @@
       <c r="A210" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D210" s="7" t="s">
+      <c r="D210" s="6" t="s">
         <v>356</v>
       </c>
     </row>
@@ -3944,7 +6202,7 @@
       <c r="A211" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D211" s="7" t="s">
+      <c r="D211" s="6" t="s">
         <v>307</v>
       </c>
     </row>
@@ -3952,7 +6210,7 @@
       <c r="A212" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D212" s="7" t="s">
+      <c r="D212" s="6" t="s">
         <v>357</v>
       </c>
     </row>
@@ -3960,7 +6218,7 @@
       <c r="A213" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D213" s="7" t="s">
+      <c r="D213" s="6" t="s">
         <v>358</v>
       </c>
     </row>
@@ -3968,7 +6226,7 @@
       <c r="A214" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D214" s="7" t="s">
+      <c r="D214" s="6" t="s">
         <v>359</v>
       </c>
     </row>
@@ -3976,7 +6234,7 @@
       <c r="A215" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D215" s="7" t="s">
+      <c r="D215" s="6" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3984,7 +6242,7 @@
       <c r="A216" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D216" s="7" t="s">
+      <c r="D216" s="6" t="s">
         <v>360</v>
       </c>
     </row>
@@ -3992,7 +6250,7 @@
       <c r="A217" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D217" s="7" t="s">
+      <c r="D217" s="6" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4000,7 +6258,7 @@
       <c r="A218" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D218" s="7" t="s">
+      <c r="D218" s="6" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4008,7 +6266,7 @@
       <c r="A219" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D219" s="8" t="s">
+      <c r="D219" s="7" t="s">
         <v>361</v>
       </c>
     </row>
@@ -4016,7 +6274,7 @@
       <c r="A220" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D220" s="7" t="s">
+      <c r="D220" s="6" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4024,7 +6282,7 @@
       <c r="A221" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D221" s="7" t="s">
+      <c r="D221" s="6" t="s">
         <v>362</v>
       </c>
     </row>
@@ -4032,7 +6290,7 @@
       <c r="A222" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D222" s="7" t="s">
+      <c r="D222" s="6" t="s">
         <v>363</v>
       </c>
     </row>
@@ -4040,7 +6298,7 @@
       <c r="A223" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D223" s="7" t="s">
+      <c r="D223" s="6" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4048,7 +6306,7 @@
       <c r="A224" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D224" s="8" t="s">
+      <c r="D224" s="7" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4056,7 +6314,7 @@
       <c r="A225" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D225" s="7" t="s">
+      <c r="D225" s="6" t="s">
         <v>364</v>
       </c>
     </row>
@@ -4064,7 +6322,7 @@
       <c r="A226" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D226" s="7" t="s">
+      <c r="D226" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4072,7 +6330,7 @@
       <c r="A227" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D227" s="7" t="s">
+      <c r="D227" s="6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4080,7 +6338,7 @@
       <c r="A228" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D228" s="7" t="s">
+      <c r="D228" s="6" t="s">
         <v>365</v>
       </c>
     </row>
@@ -4088,7 +6346,7 @@
       <c r="A229" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D229" s="7" t="s">
+      <c r="D229" s="6" t="s">
         <v>366</v>
       </c>
     </row>
@@ -4096,7 +6354,7 @@
       <c r="A230" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D230" s="7" t="s">
+      <c r="D230" s="6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4104,7 +6362,7 @@
       <c r="A231" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D231" s="7" t="s">
+      <c r="D231" s="6" t="s">
         <v>367</v>
       </c>
     </row>
@@ -4112,7 +6370,7 @@
       <c r="A232" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D232" s="7" t="s">
+      <c r="D232" s="6" t="s">
         <v>368</v>
       </c>
     </row>
@@ -4120,7 +6378,7 @@
       <c r="A233" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D233" s="7" t="s">
+      <c r="D233" s="6" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4128,7 +6386,7 @@
       <c r="A234" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D234" s="8" t="s">
+      <c r="D234" s="7" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4136,7 +6394,7 @@
       <c r="A235" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D235" s="7" t="s">
+      <c r="D235" s="6" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4144,7 +6402,7 @@
       <c r="A236" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D236" s="7" t="s">
+      <c r="D236" s="6" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4152,7 +6410,7 @@
       <c r="A237" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D237" s="7" t="s">
+      <c r="D237" s="6" t="s">
         <v>317</v>
       </c>
     </row>
@@ -4160,7 +6418,7 @@
       <c r="A238" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D238" s="8" t="s">
+      <c r="D238" s="7" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4168,7 +6426,7 @@
       <c r="A239" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D239" s="7" t="s">
+      <c r="D239" s="6" t="s">
         <v>369</v>
       </c>
     </row>
@@ -4176,7 +6434,7 @@
       <c r="A240" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D240" s="7" t="s">
+      <c r="D240" s="6" t="s">
         <v>370</v>
       </c>
     </row>
@@ -4184,7 +6442,7 @@
       <c r="A241" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D241" s="7" t="s">
+      <c r="D241" s="6" t="s">
         <v>371</v>
       </c>
     </row>
@@ -4192,7 +6450,7 @@
       <c r="A242" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D242" s="7" t="s">
+      <c r="D242" s="6" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4200,7 +6458,7 @@
       <c r="A243" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D243" s="8" t="s">
+      <c r="D243" s="7" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4208,7 +6466,7 @@
       <c r="A244" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D244" s="7" t="s">
+      <c r="D244" s="6" t="s">
         <v>372</v>
       </c>
     </row>
@@ -4216,7 +6474,7 @@
       <c r="A245" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D245" s="7" t="s">
+      <c r="D245" s="6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4224,21 +6482,21 @@
       <c r="A246" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D246" s="7" t="s">
+      <c r="D246" s="6" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" s="4" t="s">
+      <c r="A247" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D247" s="7" t="s">
+      <c r="D247" s="6" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="4"/>
-      <c r="D248" s="7" t="s">
+      <c r="A248" s="12"/>
+      <c r="D248" s="6" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4246,7 +6504,7 @@
       <c r="A249" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D249" s="7" t="s">
+      <c r="D249" s="6" t="s">
         <v>375</v>
       </c>
     </row>
@@ -4254,7 +6512,7 @@
       <c r="A250" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D250" s="8" t="s">
+      <c r="D250" s="7" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4262,7 +6520,7 @@
       <c r="A251" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D251" s="7" t="s">
+      <c r="D251" s="6" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4270,7 +6528,7 @@
       <c r="A252" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D252" s="7" t="s">
+      <c r="D252" s="6" t="s">
         <v>376</v>
       </c>
     </row>
@@ -4278,7 +6536,7 @@
       <c r="A253" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D253" s="7" t="s">
+      <c r="D253" s="6" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4286,7 +6544,7 @@
       <c r="A254" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D254" s="7" t="s">
+      <c r="D254" s="6" t="s">
         <v>377</v>
       </c>
     </row>
@@ -4294,7 +6552,7 @@
       <c r="A255" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D255" s="7" t="s">
+      <c r="D255" s="6" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4302,7 +6560,7 @@
       <c r="A256" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D256" s="7" t="s">
+      <c r="D256" s="6" t="s">
         <v>378</v>
       </c>
     </row>
@@ -4310,7 +6568,7 @@
       <c r="A257" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D257" s="8" t="s">
+      <c r="D257" s="7" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4318,7 +6576,7 @@
       <c r="A258" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D258" s="7" t="s">
+      <c r="D258" s="6" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4326,7 +6584,7 @@
       <c r="A259" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D259" s="7" t="s">
+      <c r="D259" s="6" t="s">
         <v>309</v>
       </c>
     </row>
@@ -4334,7 +6592,7 @@
       <c r="A260" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D260" s="8" t="s">
+      <c r="D260" s="7" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4342,7 +6600,7 @@
       <c r="A261" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D261" s="7" t="s">
+      <c r="D261" s="6" t="s">
         <v>338</v>
       </c>
     </row>
@@ -4350,7 +6608,7 @@
       <c r="A262" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D262" s="7" t="s">
+      <c r="D262" s="6" t="s">
         <v>379</v>
       </c>
     </row>
@@ -4358,7 +6616,7 @@
       <c r="A263" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D263" s="7" t="s">
+      <c r="D263" s="6" t="s">
         <v>380</v>
       </c>
     </row>
@@ -4366,7 +6624,7 @@
       <c r="A264" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D264" s="7" t="s">
+      <c r="D264" s="6" t="s">
         <v>381</v>
       </c>
     </row>
@@ -4374,7 +6632,7 @@
       <c r="A265" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D265" s="7" t="s">
+      <c r="D265" s="6" t="s">
         <v>382</v>
       </c>
     </row>
@@ -4382,7 +6640,7 @@
       <c r="A266" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D266" s="8" t="s">
+      <c r="D266" s="7" t="s">
         <v>383</v>
       </c>
     </row>
@@ -4390,7 +6648,7 @@
       <c r="A267" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D267" s="7" t="s">
+      <c r="D267" s="6" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4398,7 +6656,7 @@
       <c r="A268" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D268" s="7" t="s">
+      <c r="D268" s="6" t="s">
         <v>311</v>
       </c>
     </row>
@@ -4406,7 +6664,7 @@
       <c r="A269" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D269" s="7" t="s">
+      <c r="D269" s="6" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4414,7 +6672,7 @@
       <c r="A270" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D270" s="7" t="s">
+      <c r="D270" s="6" t="s">
         <v>384</v>
       </c>
     </row>
@@ -4422,7 +6680,7 @@
       <c r="A271" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D271" s="7" t="s">
+      <c r="D271" s="6" t="s">
         <v>385</v>
       </c>
     </row>
@@ -4430,7 +6688,7 @@
       <c r="A272" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D272" s="7" t="s">
+      <c r="D272" s="6" t="s">
         <v>386</v>
       </c>
     </row>
@@ -4438,7 +6696,7 @@
       <c r="A273" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D273" s="8" t="s">
+      <c r="D273" s="7" t="s">
         <v>387</v>
       </c>
     </row>
@@ -4446,7 +6704,7 @@
       <c r="A274" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D274" s="7" t="s">
+      <c r="D274" s="6" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4454,7 +6712,7 @@
       <c r="A275" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D275" s="7" t="s">
+      <c r="D275" s="6" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4462,7 +6720,7 @@
       <c r="A276" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D276" s="8" t="s">
+      <c r="D276" s="7" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4470,7 +6728,7 @@
       <c r="A277" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D277" s="7" t="s">
+      <c r="D277" s="6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4478,7 +6736,7 @@
       <c r="A278" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D278" s="7" t="s">
+      <c r="D278" s="6" t="s">
         <v>388</v>
       </c>
     </row>
@@ -4486,7 +6744,7 @@
       <c r="A279" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D279" s="7" t="s">
+      <c r="D279" s="6" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4494,7 +6752,7 @@
       <c r="A280" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D280" s="7" t="s">
+      <c r="D280" s="6" t="s">
         <v>389</v>
       </c>
     </row>
@@ -4502,7 +6760,7 @@
       <c r="A281" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D281" s="7" t="s">
+      <c r="D281" s="6" t="s">
         <v>390</v>
       </c>
     </row>
@@ -4510,7 +6768,7 @@
       <c r="A282" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D282" s="7" t="s">
+      <c r="D282" s="6" t="s">
         <v>391</v>
       </c>
     </row>
@@ -4518,7 +6776,7 @@
       <c r="A283" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D283" s="7" t="s">
+      <c r="D283" s="6" t="s">
         <v>392</v>
       </c>
     </row>
@@ -4526,7 +6784,7 @@
       <c r="A284" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D284" s="7" t="s">
+      <c r="D284" s="6" t="s">
         <v>393</v>
       </c>
     </row>
@@ -4534,7 +6792,7 @@
       <c r="A285" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D285" s="7" t="s">
+      <c r="D285" s="6" t="s">
         <v>394</v>
       </c>
     </row>
@@ -4542,7 +6800,7 @@
       <c r="A286" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D286" s="8" t="s">
+      <c r="D286" s="7" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4550,7 +6808,7 @@
       <c r="A287" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D287" s="7" t="s">
+      <c r="D287" s="6" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4558,7 +6816,7 @@
       <c r="A288" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D288" s="7" t="s">
+      <c r="D288" s="6" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4566,7 +6824,7 @@
       <c r="A289" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D289" s="7" t="s">
+      <c r="D289" s="6" t="s">
         <v>395</v>
       </c>
     </row>
@@ -4574,7 +6832,7 @@
       <c r="A290" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D290" s="7" t="s">
+      <c r="D290" s="6" t="s">
         <v>396</v>
       </c>
     </row>
@@ -4582,7 +6840,7 @@
       <c r="A291" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D291" s="7" t="s">
+      <c r="D291" s="6" t="s">
         <v>397</v>
       </c>
     </row>
@@ -4590,7 +6848,7 @@
       <c r="A292" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D292" s="8" t="s">
+      <c r="D292" s="7" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4598,7 +6856,7 @@
       <c r="A293" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D293" s="7" t="s">
+      <c r="D293" s="6" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4606,7 +6864,7 @@
       <c r="A294" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D294" s="7" t="s">
+      <c r="D294" s="6" t="s">
         <v>370</v>
       </c>
     </row>
@@ -4614,7 +6872,7 @@
       <c r="A295" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D295" s="7" t="s">
+      <c r="D295" s="6" t="s">
         <v>398</v>
       </c>
     </row>
@@ -4622,7 +6880,7 @@
       <c r="A296" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D296" s="7" t="s">
+      <c r="D296" s="6" t="s">
         <v>399</v>
       </c>
     </row>
@@ -4630,21 +6888,21 @@
       <c r="A297" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D297" s="7" t="s">
+      <c r="D297" s="6" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" s="4" t="s">
+      <c r="A298" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D298" s="7" t="s">
+      <c r="D298" s="6" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" s="4"/>
-      <c r="D299" s="7" t="s">
+      <c r="A299" s="12"/>
+      <c r="D299" s="6" t="s">
         <v>401</v>
       </c>
     </row>
@@ -4652,7 +6910,7 @@
       <c r="A300" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D300" s="7" t="s">
+      <c r="D300" s="6" t="s">
         <v>402</v>
       </c>
     </row>
@@ -4660,7 +6918,7 @@
       <c r="A301" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D301" s="8" t="s">
+      <c r="D301" s="7" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4668,7 +6926,7 @@
       <c r="A302" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D302" s="7" t="s">
+      <c r="D302" s="6" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4676,7 +6934,7 @@
       <c r="A303" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D303" s="7" t="s">
+      <c r="D303" s="6" t="s">
         <v>403</v>
       </c>
     </row>
@@ -4684,7 +6942,7 @@
       <c r="A304" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D304" s="7" t="s">
+      <c r="D304" s="6" t="s">
         <v>404</v>
       </c>
     </row>
@@ -4692,7 +6950,7 @@
       <c r="A305" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D305" s="7" t="s">
+      <c r="D305" s="6" t="s">
         <v>405</v>
       </c>
     </row>
@@ -4700,7 +6958,7 @@
       <c r="A306" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D306" s="7" t="s">
+      <c r="D306" s="6" t="s">
         <v>406</v>
       </c>
     </row>
@@ -4708,7 +6966,7 @@
       <c r="A307" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D307" s="7" t="s">
+      <c r="D307" s="6" t="s">
         <v>322</v>
       </c>
     </row>
@@ -4716,7 +6974,7 @@
       <c r="A308" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D308" s="7" t="s">
+      <c r="D308" s="6" t="s">
         <v>407</v>
       </c>
     </row>
@@ -4724,7 +6982,7 @@
       <c r="A309" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D309" s="7" t="s">
+      <c r="D309" s="6" t="s">
         <v>408</v>
       </c>
     </row>
@@ -4732,7 +6990,7 @@
       <c r="A310" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D310" s="7" t="s">
+      <c r="D310" s="6" t="s">
         <v>341</v>
       </c>
     </row>
@@ -4842,12 +7100,12 @@
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="4" t="s">
+      <c r="A332" s="12" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="4"/>
+      <c r="A333" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5190,2083 +7448,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C73A8C-DFDF-4011-9D60-B786552372A5}">
-  <dimension ref="A1:A410"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32930B54-379D-44FB-BEF4-800B66EA77DC}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A332" sqref="A332"/>
+    <sheetView topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="A224" sqref="A1:A224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.28515625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="9" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="9" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="9" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="9" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="9" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="9" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="9" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="9" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="9" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="9" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="9" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="9" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="9" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="9" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="9" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="9" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="9" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="9" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="9" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="9" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="9" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="9" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="9" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="9" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="9" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="9" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="9" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="9" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="9" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="9" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="9" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="9" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="9" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="9" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="9" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="9" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="9" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="9" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="9" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="9" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="9" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="9" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="9" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="9" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="9" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="9" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="9" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="9" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="9" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="9" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="9" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="9" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="9" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="9" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="13"/>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="11" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="11" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="11" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="11" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="11" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="11" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="11" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="11" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="11" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="11" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="11" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="11" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="11" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="11" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="11" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataConsolidate/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82671ED9-1B2A-495A-BE52-1DFB7E9D02ED}">
-  <dimension ref="A1"/>
+  <dimension ref="B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A226"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="13" t="s">
+        <v>593</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>